--- a/src/test/resources/TestData/LiveProject_TestData.xlsx
+++ b/src/test/resources/TestData/LiveProject_TestData.xlsx
@@ -3,30 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud El-Sharkawy\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29DBE5-1513-42E5-B6AF-99A949E966A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E18BBD1E-F663-4912-98F5-A8F9C13D58DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19455" windowHeight="13830" activeTab="1" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="testsheet1" sheetId="2" r:id="rId1"/>
     <sheet name="testsheet2" sheetId="1" r:id="rId2"/>
     <sheet name="testsheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,10 +34,10 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Selenium Projects - Selenium WebDriver</t>
+    <t>Search Index</t>
   </si>
   <si>
-    <t>Search Index</t>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
@@ -433,7 +423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -443,19 +433,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E5A4EB-72C8-0E44-91C4-D3652BB51352}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -466,7 +458,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -474,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -492,7 +484,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
